--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H2">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N2">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q2">
-        <v>887.2167884239049</v>
+        <v>2129.039116859989</v>
       </c>
       <c r="R2">
-        <v>7984.951095815145</v>
+        <v>19161.3520517399</v>
       </c>
       <c r="S2">
-        <v>0.02484545310342387</v>
+        <v>0.03712457759329815</v>
       </c>
       <c r="T2">
-        <v>0.02484545310342387</v>
+        <v>0.03712457759329815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H3">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q3">
-        <v>10.509658567365</v>
+        <v>21.52195967554966</v>
       </c>
       <c r="R3">
-        <v>94.58692710628499</v>
+        <v>193.697637079947</v>
       </c>
       <c r="S3">
-        <v>0.0002943105140428253</v>
+        <v>0.0003752836928206243</v>
       </c>
       <c r="T3">
-        <v>0.0002943105140428253</v>
+        <v>0.0003752836928206243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H4">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N4">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q4">
-        <v>253.99276522554</v>
+        <v>520.1352275803016</v>
       </c>
       <c r="R4">
-        <v>2285.93488702986</v>
+        <v>4681.217048222715</v>
       </c>
       <c r="S4">
-        <v>0.007112765920751453</v>
+        <v>0.009069725615841075</v>
       </c>
       <c r="T4">
-        <v>0.007112765920751454</v>
+        <v>0.009069725615841075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H5">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N5">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O5">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P5">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q5">
-        <v>31.260967545195</v>
+        <v>39.16093630816033</v>
       </c>
       <c r="R5">
-        <v>281.348707906755</v>
+        <v>352.448426773443</v>
       </c>
       <c r="S5">
-        <v>0.0008754262917990464</v>
+        <v>0.000682858857352837</v>
       </c>
       <c r="T5">
-        <v>0.0008754262917990463</v>
+        <v>0.000682858857352837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H6">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N6">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O6">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P6">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q6">
-        <v>136.77304581423</v>
+        <v>315.478299151015</v>
       </c>
       <c r="R6">
-        <v>1230.95741232807</v>
+        <v>2839.304692359135</v>
       </c>
       <c r="S6">
-        <v>0.003830166809204099</v>
+        <v>0.005501072527548019</v>
       </c>
       <c r="T6">
-        <v>0.003830166809204099</v>
+        <v>0.005501072527548019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H7">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N7">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q7">
-        <v>340.360788144255</v>
+        <v>1596.183265629953</v>
       </c>
       <c r="R7">
-        <v>3063.247093298295</v>
+        <v>14365.64939066957</v>
       </c>
       <c r="S7">
-        <v>0.009531399890555349</v>
+        <v>0.02783303934095832</v>
       </c>
       <c r="T7">
-        <v>0.009531399890555349</v>
+        <v>0.02783303934095831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N8">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q8">
-        <v>6103.889270011776</v>
+        <v>7152.655857312012</v>
       </c>
       <c r="R8">
-        <v>54935.00343010598</v>
+        <v>64373.90271580811</v>
       </c>
       <c r="S8">
-        <v>0.1709321741712926</v>
+        <v>0.1247226156016188</v>
       </c>
       <c r="T8">
-        <v>0.1709321741712926</v>
+        <v>0.1247226156016188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q9">
         <v>72.30452917238566</v>
@@ -1013,10 +1013,10 @@
         <v>650.7407625514709</v>
       </c>
       <c r="S9">
-        <v>0.002024802519696378</v>
+        <v>0.001260791820286525</v>
       </c>
       <c r="T9">
-        <v>0.002024802519696378</v>
+        <v>0.001260791820286525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N10">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q10">
-        <v>1747.42378024079</v>
+        <v>1747.430684896721</v>
       </c>
       <c r="R10">
-        <v>15726.81402216711</v>
+        <v>15726.87616407049</v>
       </c>
       <c r="S10">
-        <v>0.04893452891136752</v>
+        <v>0.03047037771012672</v>
       </c>
       <c r="T10">
-        <v>0.04893452891136753</v>
+        <v>0.03047037771012671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N11">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O11">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P11">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q11">
-        <v>215.069740405017</v>
+        <v>131.5639051646443</v>
       </c>
       <c r="R11">
-        <v>1935.627663645153</v>
+        <v>1184.075146481799</v>
       </c>
       <c r="S11">
-        <v>0.006022772809214825</v>
+        <v>0.002294112103006213</v>
       </c>
       <c r="T11">
-        <v>0.006022772809214824</v>
+        <v>0.002294112103006212</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N12">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O12">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P12">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q12">
-        <v>940.973545209138</v>
+        <v>1059.871416362395</v>
       </c>
       <c r="R12">
-        <v>8468.761906882241</v>
+        <v>9538.842747261555</v>
       </c>
       <c r="S12">
-        <v>0.02635084727216172</v>
+        <v>0.01848123800266096</v>
       </c>
       <c r="T12">
-        <v>0.02635084727216172</v>
+        <v>0.01848123800266095</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N13">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q13">
-        <v>2341.619984870987</v>
+        <v>5362.489347349228</v>
       </c>
       <c r="R13">
-        <v>21074.57986383888</v>
+        <v>48262.40412614305</v>
       </c>
       <c r="S13">
-        <v>0.0655742883579824</v>
+        <v>0.09350704282151207</v>
       </c>
       <c r="T13">
-        <v>0.0655742883579824</v>
+        <v>0.09350704282151204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H14">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N14">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q14">
-        <v>4426.084082490097</v>
+        <v>6492.90991642239</v>
       </c>
       <c r="R14">
-        <v>39834.75674241088</v>
+        <v>58436.18924780151</v>
       </c>
       <c r="S14">
-        <v>0.1239472313172423</v>
+        <v>0.1132184637142906</v>
       </c>
       <c r="T14">
-        <v>0.1239472313172423</v>
+        <v>0.1132184637142907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H15">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q15">
-        <v>52.42983801067867</v>
+        <v>65.63531139076244</v>
       </c>
       <c r="R15">
-        <v>471.868542096108</v>
+        <v>590.717802516862</v>
       </c>
       <c r="S15">
-        <v>0.001468235383404439</v>
+        <v>0.001144499033056934</v>
       </c>
       <c r="T15">
-        <v>0.001468235383404439</v>
+        <v>0.001144499033056934</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H16">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N16">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q16">
-        <v>1267.101062446619</v>
+        <v>1586.251351744821</v>
       </c>
       <c r="R16">
-        <v>11403.90956201957</v>
+        <v>14276.26216570339</v>
       </c>
       <c r="S16">
-        <v>0.0354836613047434</v>
+        <v>0.0276598541210351</v>
       </c>
       <c r="T16">
-        <v>0.0354836613047434</v>
+        <v>0.0276598541210351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H17">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N17">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O17">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P17">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q17">
-        <v>155.952493979316</v>
+        <v>119.4287271088976</v>
       </c>
       <c r="R17">
-        <v>1403.572445813844</v>
+        <v>1074.858543980078</v>
       </c>
       <c r="S17">
-        <v>0.004367264490574298</v>
+        <v>0.002082508025010925</v>
       </c>
       <c r="T17">
-        <v>0.004367264490574297</v>
+        <v>0.002082508025010925</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H18">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N18">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O18">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P18">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q18">
-        <v>682.323654027624</v>
+        <v>962.1111048418567</v>
       </c>
       <c r="R18">
-        <v>6140.912886248616</v>
+        <v>8658.999943576711</v>
       </c>
       <c r="S18">
-        <v>0.01910766406665461</v>
+        <v>0.01677656745816579</v>
       </c>
       <c r="T18">
-        <v>0.0191076640666546</v>
+        <v>0.01677656745816579</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H19">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N19">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q19">
-        <v>1697.967719237178</v>
+        <v>4867.864602281871</v>
       </c>
       <c r="R19">
-        <v>15281.7094731346</v>
+        <v>43810.78142053684</v>
       </c>
       <c r="S19">
-        <v>0.04754957062340708</v>
+        <v>0.08488214975007771</v>
       </c>
       <c r="T19">
-        <v>0.04754957062340708</v>
+        <v>0.08488214975007771</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H20">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N20">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q20">
-        <v>1586.303021164571</v>
+        <v>1475.891880044836</v>
       </c>
       <c r="R20">
-        <v>14276.72719048114</v>
+        <v>13283.02692040353</v>
       </c>
       <c r="S20">
-        <v>0.0444225332910777</v>
+        <v>0.02573548892838236</v>
       </c>
       <c r="T20">
-        <v>0.0444225332910777</v>
+        <v>0.02573548892838236</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H21">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q21">
-        <v>18.79078862612066</v>
+        <v>14.91944665377656</v>
       </c>
       <c r="R21">
-        <v>169.117097635086</v>
+        <v>134.275019883989</v>
       </c>
       <c r="S21">
-        <v>0.0005262137322897085</v>
+        <v>0.0002601540528593419</v>
       </c>
       <c r="T21">
-        <v>0.0005262137322897085</v>
+        <v>0.0002601540528593419</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H22">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N22">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q22">
-        <v>454.1274422308505</v>
+        <v>360.5679918381339</v>
       </c>
       <c r="R22">
-        <v>4087.146980077655</v>
+        <v>3245.111926543205</v>
       </c>
       <c r="S22">
-        <v>0.01271730000620041</v>
+        <v>0.006287312564926814</v>
       </c>
       <c r="T22">
-        <v>0.01271730000620041</v>
+        <v>0.006287312564926814</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H23">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N23">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O23">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P23">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q23">
-        <v>55.893179557122</v>
+        <v>27.14713292699345</v>
       </c>
       <c r="R23">
-        <v>503.038616014098</v>
+        <v>244.324196342941</v>
       </c>
       <c r="S23">
-        <v>0.001565222152699188</v>
+        <v>0.0004733712193461895</v>
       </c>
       <c r="T23">
-        <v>0.001565222152699188</v>
+        <v>0.0004733712193461895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H24">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N24">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O24">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P24">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q24">
-        <v>244.5439475671079</v>
+        <v>218.6957751786383</v>
       </c>
       <c r="R24">
-        <v>2200.895528103972</v>
+        <v>1968.261976607745</v>
       </c>
       <c r="S24">
-        <v>0.006848162997228765</v>
+        <v>0.003813451904500528</v>
       </c>
       <c r="T24">
-        <v>0.006848162997228764</v>
+        <v>0.003813451904500528</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H25">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N25">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q25">
-        <v>608.5495152524313</v>
+        <v>1106.505701163978</v>
       </c>
       <c r="R25">
-        <v>5476.945637271881</v>
+        <v>9958.551310475797</v>
       </c>
       <c r="S25">
-        <v>0.01704170687434236</v>
+        <v>0.01929441147181623</v>
       </c>
       <c r="T25">
-        <v>0.01704170687434236</v>
+        <v>0.01929441147181623</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H26">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N26">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q26">
-        <v>2049.264535237847</v>
+        <v>2453.456669228772</v>
       </c>
       <c r="R26">
-        <v>18443.38081714062</v>
+        <v>22081.11002305895</v>
       </c>
       <c r="S26">
-        <v>0.05738722099387835</v>
+        <v>0.042781526073092</v>
       </c>
       <c r="T26">
-        <v>0.05738722099387835</v>
+        <v>0.042781526073092</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H27">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.995073</v>
       </c>
       <c r="O27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q27">
-        <v>24.27486817265844</v>
+        <v>24.80142101791289</v>
       </c>
       <c r="R27">
-        <v>218.473813553926</v>
+        <v>223.212789161216</v>
       </c>
       <c r="S27">
-        <v>0.0006797888708203933</v>
+        <v>0.0004324684650987148</v>
       </c>
       <c r="T27">
-        <v>0.0006797888708203933</v>
+        <v>0.0004324684650987148</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H28">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N28">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q28">
-        <v>586.664243480255</v>
+        <v>599.3921074075023</v>
       </c>
       <c r="R28">
-        <v>5279.978191322296</v>
+        <v>5394.528966667521</v>
       </c>
       <c r="S28">
-        <v>0.01642883581445492</v>
+        <v>0.01045174728075401</v>
       </c>
       <c r="T28">
-        <v>0.01642883581445492</v>
+        <v>0.01045174728075401</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H29">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N29">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O29">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P29">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q29">
-        <v>72.205567977802</v>
+        <v>45.12817993696711</v>
       </c>
       <c r="R29">
-        <v>649.850111800218</v>
+        <v>406.153619432704</v>
       </c>
       <c r="S29">
-        <v>0.0020220312289012</v>
+        <v>0.0007869111490000082</v>
       </c>
       <c r="T29">
-        <v>0.0020220312289012</v>
+        <v>0.0007869111490000082</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H30">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N30">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O30">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P30">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q30">
-        <v>315.913941012628</v>
+        <v>363.5500780232534</v>
       </c>
       <c r="R30">
-        <v>2843.225469113652</v>
+        <v>3271.95070220928</v>
       </c>
       <c r="S30">
-        <v>0.008846794953114509</v>
+        <v>0.006339311933605699</v>
       </c>
       <c r="T30">
-        <v>0.008846794953114507</v>
+        <v>0.006339311933605699</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H31">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N31">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q31">
-        <v>786.1542989607736</v>
+        <v>1839.405601972651</v>
       </c>
       <c r="R31">
-        <v>7075.388690646962</v>
+        <v>16554.65041775386</v>
       </c>
       <c r="S31">
-        <v>0.02201531803921701</v>
+        <v>0.03207416691182932</v>
       </c>
       <c r="T31">
-        <v>0.02201531803921701</v>
+        <v>0.03207416691182931</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H32">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I32">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J32">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N32">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q32">
-        <v>4031.473332483748</v>
+        <v>6715.330117232722</v>
       </c>
       <c r="R32">
-        <v>36283.25999235374</v>
+        <v>60437.9710550945</v>
       </c>
       <c r="S32">
-        <v>0.1128966256351672</v>
+        <v>0.1170968593425863</v>
       </c>
       <c r="T32">
-        <v>0.1128966256351672</v>
+        <v>0.1170968593425862</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H33">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I33">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J33">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.995073</v>
       </c>
       <c r="O33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q33">
-        <v>47.75541761682444</v>
+        <v>67.88370530469278</v>
       </c>
       <c r="R33">
-        <v>429.79875855142</v>
+        <v>610.953347742235</v>
       </c>
       <c r="S33">
-        <v>0.001337333788443069</v>
+        <v>0.001183704829539017</v>
       </c>
       <c r="T33">
-        <v>0.001337333788443069</v>
+        <v>0.001183704829539017</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H34">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I34">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J34">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N34">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q34">
-        <v>1154.131744361591</v>
+        <v>1640.58975297512</v>
       </c>
       <c r="R34">
-        <v>10387.18569925432</v>
+        <v>14765.30777677608</v>
       </c>
       <c r="S34">
-        <v>0.03232008963744726</v>
+        <v>0.02860736615911601</v>
       </c>
       <c r="T34">
-        <v>0.03232008963744728</v>
+        <v>0.028607366159116</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H35">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I35">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J35">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N35">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O35">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P35">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q35">
-        <v>142.04843579434</v>
+        <v>123.5198606388572</v>
       </c>
       <c r="R35">
-        <v>1278.43592214906</v>
+        <v>1111.678745749715</v>
       </c>
       <c r="S35">
-        <v>0.003977897844125038</v>
+        <v>0.002153846124426183</v>
       </c>
       <c r="T35">
-        <v>0.003977897844125038</v>
+        <v>0.002153846124426183</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H36">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I36">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J36">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N36">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O36">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P36">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q36">
-        <v>621.49059169876</v>
+        <v>995.0690463342419</v>
       </c>
       <c r="R36">
-        <v>5593.41532528884</v>
+        <v>8955.621417008177</v>
       </c>
       <c r="S36">
-        <v>0.01740410636018421</v>
+        <v>0.01735126317256581</v>
       </c>
       <c r="T36">
-        <v>0.01740410636018421</v>
+        <v>0.0173512631725658</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H37">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I37">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J37">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N37">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q37">
-        <v>1546.584170554616</v>
+        <v>5034.617481390599</v>
       </c>
       <c r="R37">
-        <v>13919.25753499154</v>
+        <v>45311.55733251539</v>
       </c>
       <c r="S37">
-        <v>0.04331025402289049</v>
+        <v>0.08778986062788821</v>
       </c>
       <c r="T37">
-        <v>0.04331025402289049</v>
+        <v>0.08778986062788818</v>
       </c>
     </row>
   </sheetData>
